--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/팬케이크 레시피.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/팬케이크 레시피.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\2. 표시 형식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DB074-1CC9-46BC-9432-712D0AB75786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91145C11-3F6E-4578-BBE4-4DDCC1A8B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24132" yWindow="3252" windowWidth="21180" windowHeight="16692" xr2:uid="{3B25C1AC-89EA-4942-9476-A57D614C7668}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B25C1AC-89EA-4942-9476-A57D614C7668}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="anscount" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -217,9 +206,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,6 +213,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,101 +556,113 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="8">
+        <v>0.66666666666666696</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="8">
+        <v>0.25</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8">
+        <v>3.5</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="8">
+        <v>1.25</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="3"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
     </row>
   </sheetData>
